--- a/src/test/resources/testData/testdata 1 1.xlsx
+++ b/src/test/resources/testData/testdata 1 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\iween-main\iween-main\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA8BD38-BF81-4E00-928F-4D60B5C1DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E23436-BDB6-48A7-928F-2D25EF0D3C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8468,8 +8468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF94DEAF-B1DD-4EA5-85BF-D4E02205DD65}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8525,7 +8525,7 @@
         <v>22</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
